--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840B58D9-2A6C-4E78-A6BE-BB3B738EC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2709F-4E34-4BF2-AD4F-F4838AF4B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Ton</t>
   </si>
@@ -70,30 +70,6 @@
     <t>HP: 80; DMG: 6; Spd: 6; SkillCD: 5; Shield: 50; AtkSpd: 7</t>
   </si>
   <si>
-    <t>HP: 15-30; DMG: 10-25; Spd: 5-14; SkillCD: 0; Shield: 10; AtkSpd: 0</t>
-  </si>
-  <si>
-    <t>HP: 15; DMG: 2-6; Spd: 10-20; SkillCD: 8-14; Shield: 0-20; AtkSpd: 8-17</t>
-  </si>
-  <si>
-    <t>HP: 15; DMG: 2-6; Spd: 10-20; SkillCD: 8-14; Shield: 0-20; AtkSpd: 8-18</t>
-  </si>
-  <si>
-    <t>HP: 15; DMG: 2-6; Spd: 10-20; SkillCD: 8-14; Shield: 0-20; AtkSpd: 8-19</t>
-  </si>
-  <si>
-    <t>HP: 15-30; DMG: 10-25; Spd: 5-14; SkillCD: 0; Shield: 10; AtkSpd: 1</t>
-  </si>
-  <si>
-    <t>HP: 15-30; DMG: 10-25; Spd: 5-14; SkillCD: 0; Shield: 10; AtkSpd: 2</t>
-  </si>
-  <si>
-    <t>HP: 15-30; DMG: 10-25; Spd: 5-14; SkillCD: 0; Shield: 10; AtkSpd: 3</t>
-  </si>
-  <si>
-    <t>HP: 15-30; DMG: 10-25; Spd: 5-14; SkillCD: 0; Shield: 10; AtkSpd: 4</t>
-  </si>
-  <si>
     <t>HP: 6; DMG: 6; Spd: 8; SkillCD: 20; Shield: 3; AtkSpd: 5</t>
   </si>
   <si>
@@ -236,13 +212,97 @@
   </si>
   <si>
     <t>Fortress(T1)</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 2; Spd: 12; SkillCD: 10; Shield: 0; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 2; Spd: 14; SkillCD: 12; Shield: 5; AtkSpd: 12</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 4; Spd: 16; SkillCD: 12; Shield: 10; AtkSpd: 12</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 10; Spd: 5; SkillCD: 0; Shield: 10; AtkSpd: 0</t>
+  </si>
+  <si>
+    <t>HP: 30; DMG: 25; Spd: 14; SkillCD: 0; Shield: 10; AtkSpd: 4</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 15; Spd: 10; SkillCD: 0; Shield: 10; AtkSpd: 1</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 20; Spd: 10; SkillCD: 0; Shield: 10; AtkSpd: 2</t>
+  </si>
+  <si>
+    <t>HP: 25; DMG: 20; Spd: 10; SkillCD: 0; Shield: 10; AtkSpd: 3</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 2; Spd: 4; SkillCD: 12; Shield: 10; AtkSpd: 2</t>
+  </si>
+  <si>
+    <t>HP: 90; DMG: 6; Spd: 4; SkillCD: 6; Shield: 30; AtkSpd: 4</t>
+  </si>
+  <si>
+    <t>HP: 55; DMG: 5; Spd: 4; SkillCD: 8; Shield: 25; AtkSpd: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 45; DMG: 4; Spd: 4; SkillCD: 10; Shield: 20; AtkSpd: 3</t>
+  </si>
+  <si>
+    <t>HP: 36; DMG: 3; Spd: 4; SkillCD: 10; Shield: 15; AtkSpd: 2</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 4; Spd: 10; SkillCD: 18; Shield: 10; AtkSpd: 5</t>
+  </si>
+  <si>
+    <t>HP: 30; DMG: 6; Spd: 11; SkillCD: 16; Shield: 15; AtkSpd: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 40; DMG: 8; Spd: 12; SkillCD: 14; Shield: 20; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 50; DMG: 10; Spd: 13; SkillCD: 12; Shield: 25; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 60; DMG: 12; Spd: 14; SkillCD: 10; Shield: 30; AtkSpd: 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 10; DMG: 6; Spd: 12; SkillCD: 16; Shield: 2; AtkSpd: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 15; DMG: 8; Spd: 14; SkillCD: 14; Shield: 4; AtkSpd: 7</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 10; Spd: 16; SkillCD: 12; Shield: 6; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 25; DMG: 12; Spd: 18; SkillCD: 10; Shield: 8; AtkSpd: 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 30; DMG: 15; Spd: 20; SkillCD: 8; Shield: 10; AtkSpd: 20</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>Enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +336,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6161"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -321,26 +394,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6161"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,20 +734,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DEEF68-2B08-495F-A0B1-0D9549A78973}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="134.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="137" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -679,85 +765,151 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H1" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B08B2-5CFE-4465-BA25-998B282FF49B}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,467 +954,467 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4">
         <v>-100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>-20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>-10</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>46</v>
+      <c r="K2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
         <v>-50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>-10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>-5</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>-10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>63</v>
+      <c r="K3" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
         <v>-120</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>-50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>-10</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>-20</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
         <v>-20</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>-3</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>-10</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>65</v>
+      <c r="G5" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4">
         <v>-50</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>-30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>-3</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
         <v>-70</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>-10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>-3</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
         <v>-100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>-60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>-5</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>-5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-20</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-15</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2709F-4E34-4BF2-AD4F-F4838AF4B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B35BFED-76B9-4CC3-AC9F-C42ABF45A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
     <sheet name="Building" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>Ton</t>
   </si>
@@ -199,9 +200,6 @@
     <t>Limit</t>
   </si>
   <si>
-    <t>Max 2, +1 each level</t>
-  </si>
-  <si>
     <t>Max 20, +5 each Barack tier</t>
   </si>
   <si>
@@ -296,6 +294,69 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>tier 6</t>
+  </si>
+  <si>
+    <t>tier 7</t>
+  </si>
+  <si>
+    <t>tier 8</t>
+  </si>
+  <si>
+    <t>HP: 150; DMG: 13; Spd: 10; SkillCD: 8; Shield: 60; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t>HP: 130; DMG: 13; Spd: 10; SkillCD: 8; Shield: 50; AtkSpd: 9</t>
+  </si>
+  <si>
+    <t>HP: 100; DMG: 8; Spd: 8; SkillCD: 8; Shield: 50; AtkSpd: 8</t>
+  </si>
+  <si>
+    <t>HP: 70; DMG: 20; Spd: 14; SkillCD: 12; Shield: 20; AtkSpd: 16</t>
+  </si>
+  <si>
+    <t>HP: 70; DMG: 18; Spd: 14; SkillCD: 10; Shield: 20; AtkSpd: 16</t>
+  </si>
+  <si>
+    <t>HP: 60; DMG: 18; Spd: 12; SkillCD: 10; Shield: 18; AtkSpd: 14</t>
+  </si>
+  <si>
+    <t>HP: 30; DMG: 10; Spd: 30; SkillCD: 20; Shield: 30; AtkSpd: 30</t>
+  </si>
+  <si>
+    <t>HP: 25; DMG: 8; Spd: 30; SkillCD: 18; Shield: 30; AtkSpd: 25</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 6; Spd: 25; SkillCD: 16; Shield: 25; AtkSpd: 20</t>
+  </si>
+  <si>
+    <t>HP: 40; DMG: 35; Spd: 30; SkillCD: 0; Shield: 15; AtkSpd: 8</t>
+  </si>
+  <si>
+    <t>HP: 40; DMG: 30; Spd: 25; SkillCD: 0; Shield: 15; AtkSpd: 8</t>
+  </si>
+  <si>
+    <t>HP: 35; DMG: 25; Spd: 20; SkillCD: 0; Shield: 10; AtkSpd: 6</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Max 2, +1 each level( max 15 unit with mine, lumber)</t>
+  </si>
+  <si>
+    <t>"-100(+ 150 each tier)"</t>
+  </si>
+  <si>
+    <t>"-20(+200 each tier)"</t>
+  </si>
+  <si>
+    <t>"-10(+15 each tier)"</t>
+  </si>
+  <si>
+    <t>"0(+20 each tier)"</t>
   </si>
 </sst>
 </file>
@@ -344,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,11 +476,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DEEF68-2B08-495F-A0B1-0D9549A78973}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +813,10 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="134.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="137" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="7" max="9" width="102.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -765,11 +833,17 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -788,11 +862,17 @@
       <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="G2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -811,8 +891,17 @@
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="G3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -820,95 +909,119 @@
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="G4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -920,22 +1033,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B08B2-5CFE-4465-BA25-998B282FF49B}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -971,25 +1084,28 @@
       <c r="G1" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="K1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-100</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1023,9 +1139,6 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1041,7 +1154,7 @@
         <v>-10</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F4" s="4">
         <v>-20</v>
@@ -1069,8 +1182,8 @@
       <c r="F5" s="4">
         <v>-10</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>57</v>
+      <c r="G5" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -1087,12 +1200,12 @@
         <v>-3</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1108,12 +1221,12 @@
         <v>-3</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -1129,7 +1242,7 @@
         <v>-5</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F8" s="4">
         <v>-5</v>
@@ -1306,121 +1419,176 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD365A5-A951-44E7-80BC-819E73DDA192}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="P1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>-10</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B2" s="6">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-20</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>-5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>-5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-10</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6">
-        <v>-20</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="6">
-        <v>-5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>60</v>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G17:G19"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\DAWN\Assets\Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Project_DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B35BFED-76B9-4CC3-AC9F-C42ABF45A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB5237-2C4B-49EC-BE1F-504E56BD46EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -476,12 +479,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -546,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -652,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -794,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DEEF68-2B08-495F-A0B1-0D9549A78973}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1185,7 @@
       <c r="F5" s="4">
         <v>-10</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1205,7 +1208,7 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1226,7 +1229,7 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -1461,7 +1464,7 @@
       <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="14"/>
       <c r="P1" s="9" t="s">
         <v>55</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -1506,7 +1509,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1527,7 +1530,7 @@
       <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -1548,7 +1551,7 @@
       <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -1571,11 +1574,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>58</v>
       </c>

--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Project_DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB5237-2C4B-49EC-BE1F-504E56BD46EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38185D93-CF9B-4F35-9ED2-E18B8ED207CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22620" windowHeight="11295" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
   <si>
     <t>Ton</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>"0(+20 each tier)"</t>
+  </si>
+  <si>
+    <t>Mics</t>
+  </si>
+  <si>
+    <t>RubbleHouse</t>
+  </si>
+  <si>
+    <t>Max 5 tier</t>
   </si>
 </sst>
 </file>
@@ -408,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -467,10 +482,7 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -480,11 +492,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DEEF68-2B08-495F-A0B1-0D9549A78973}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -847,184 +862,184 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1036,26 +1051,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B08B2-5CFE-4465-BA25-998B282FF49B}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1067,34 +1082,37 @@
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1116,11 +1134,12 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="13"/>
+      <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1142,8 +1161,12 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H3" s="13"/>
+      <c r="K3" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1165,8 +1188,9 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1185,11 +1209,12 @@
       <c r="F5" s="4">
         <v>-10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1208,9 +1233,10 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1229,9 +1255,10 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1253,8 +1280,9 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1274,8 +1302,9 @@
         <v>0</v>
       </c>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1295,8 +1324,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1316,8 +1346,9 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1337,8 +1368,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1358,8 +1390,9 @@
         <v>10</v>
       </c>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1379,8 +1412,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1400,8 +1434,9 @@
         <v>10</v>
       </c>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1421,6 +1456,19 @@
         <v>20</v>
       </c>
       <c r="G16" s="5"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1449,143 +1497,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="P1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="P1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>-10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>-10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>-20</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>-5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>-5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>-10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>-5</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>-15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Project_DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38185D93-CF9B-4F35-9ED2-E18B8ED207CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186CB21A-7963-448A-B6E3-47324F35E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22620" windowHeight="11295" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -65,18 +65,12 @@
     <t>HP: 45; DMG: 4; Spd: 6; SkillCD: 10; Shield: 30; AtkSpd: 4</t>
   </si>
   <si>
-    <t>HP: 10; DMG: 2; Spd: 6; SkillCD: 15; Shield: 5; AtkSpd: 3</t>
-  </si>
-  <si>
     <t>HP: 60; DMG: 4; Spd: 6; SkillCD: 8; Shield: 40; AtkSpd: 5</t>
   </si>
   <si>
     <t>HP: 80; DMG: 6; Spd: 6; SkillCD: 5; Shield: 50; AtkSpd: 7</t>
   </si>
   <si>
-    <t>HP: 6; DMG: 6; Spd: 8; SkillCD: 20; Shield: 3; AtkSpd: 5</t>
-  </si>
-  <si>
     <t>HP: 50; DMG: 16; Spd: 12; SkillCD: 8; Shield: 18; AtkSpd: 12</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>HP: 30; DMG: 16; Spd: 10; SkillCD: 10; Shield: 16; AtkSpd: 8</t>
   </si>
   <si>
-    <t>HP: 15; DMG: 2; Spd: 10; SkillCD: 8; Shield: 0; AtkSpd: 8</t>
-  </si>
-  <si>
     <t>HP: 15; DMG: 6; Spd: 20; SkillCD: 14; Shield: 20; AtkSpd: 20</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>HP: 15; DMG: 4; Spd: 16; SkillCD: 12; Shield: 10; AtkSpd: 12</t>
   </si>
   <si>
-    <t>HP: 15; DMG: 10; Spd: 5; SkillCD: 0; Shield: 10; AtkSpd: 0</t>
-  </si>
-  <si>
     <t>HP: 30; DMG: 25; Spd: 14; SkillCD: 0; Shield: 10; AtkSpd: 4</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
     <t>HP: 25; DMG: 20; Spd: 10; SkillCD: 0; Shield: 10; AtkSpd: 3</t>
   </si>
   <si>
-    <t>HP: 20; DMG: 2; Spd: 4; SkillCD: 12; Shield: 10; AtkSpd: 2</t>
-  </si>
-  <si>
     <t>HP: 90; DMG: 6; Spd: 4; SkillCD: 6; Shield: 30; AtkSpd: 4</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
     <t>HP: 36; DMG: 3; Spd: 4; SkillCD: 10; Shield: 15; AtkSpd: 2</t>
   </si>
   <si>
-    <t>HP: 20; DMG: 4; Spd: 10; SkillCD: 18; Shield: 10; AtkSpd: 5</t>
-  </si>
-  <si>
     <t>HP: 30; DMG: 6; Spd: 11; SkillCD: 16; Shield: 15; AtkSpd: 6</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t xml:space="preserve">	HP: 60; DMG: 12; Spd: 14; SkillCD: 10; Shield: 30; AtkSpd: 12</t>
   </si>
   <si>
-    <t xml:space="preserve">	HP: 10; DMG: 6; Spd: 12; SkillCD: 16; Shield: 2; AtkSpd: 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">	HP: 15; DMG: 8; Spd: 14; SkillCD: 14; Shield: 4; AtkSpd: 7</t>
   </si>
   <si>
@@ -369,6 +348,27 @@
   </si>
   <si>
     <t>Max 5 tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HP: 10; DMG: 2; Spd: 12; SkillCD: 16; Shield: 2; AtkSpd: 2; AtkRange: 12</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 1; Spd: 4; SkillCD: 12; Shield: 3; AtkSpd: 0.5; AtkRange: 0.85</t>
+  </si>
+  <si>
+    <t>HP: 20; DMG: 3; Spd: 6; SkillCD: 18; Shield: 10; AtkSpd: 5; AtkRange: 1.4</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 10; Spd: 5; SkillCD: 0; Shield: 10; AtkSpd: 0; AtkRange: 0</t>
+  </si>
+  <si>
+    <t>HP: 15; DMG: 1; Spd: 10; SkillCD: 8; Shield: 0; AtkSpd: 2; AtkRange: 0.64</t>
+  </si>
+  <si>
+    <t>HP: 6; DMG: 3; Spd: 8; SkillCD: 20; Shield: 3; AtkSpd: 1; AtkRange: 5</t>
+  </si>
+  <si>
+    <t>HP: 30; DMG: 2; Spd: 6; SkillCD: 15; Shield: 5; AtkSpd: 0.5; AtkRange: 0</t>
   </si>
 </sst>
 </file>
@@ -492,14 +492,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +823,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,13 +852,13 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -875,19 +875,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -895,28 +895,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -924,28 +924,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -953,94 +953,94 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1083,50 +1083,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>104</v>
+      <c r="A1" s="12"/>
+      <c r="B1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1134,14 +1134,14 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>-50</v>
@@ -1161,14 +1161,14 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="K3" s="14" t="s">
-        <v>110</v>
+      <c r="H3" s="12"/>
+      <c r="K3" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>-120</v>
@@ -1188,11 +1188,11 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>-20</v>
@@ -1209,14 +1209,14 @@
       <c r="F5" s="4">
         <v>-10</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="G5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>-50</v>
@@ -1233,12 +1233,12 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4">
         <v>-70</v>
@@ -1255,12 +1255,12 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>-100</v>
@@ -1280,11 +1280,11 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -1302,11 +1302,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>30</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1324,11 +1324,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -1346,11 +1346,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1368,11 +1368,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1390,11 +1390,11 @@
         <v>10</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5">
         <v>50</v>
@@ -1412,11 +1412,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1434,20 +1434,20 @@
         <v>10</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1456,19 +1456,19 @@
         <v>20</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1498,23 +1498,23 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11"/>
       <c r="P1" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
@@ -1534,7 +1534,7 @@
         <v>-5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -1555,28 +1555,28 @@
         <v>-15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -1597,44 +1597,44 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Guide/StatData.xlsx
+++ b/Assets/Guide/StatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Project_DAWN\Assets\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186CB21A-7963-448A-B6E3-47324F35E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8562E1B-C084-4A1D-9920-0180D72E7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="26745" windowHeight="11295" activeTab="1" xr2:uid="{71E63FF0-473D-41DB-B7B2-B2B736103E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
   <si>
     <t>Ton</t>
   </si>
@@ -369,13 +369,301 @@
   </si>
   <si>
     <t>HP: 30; DMG: 2; Spd: 6; SkillCD: 15; Shield: 5; AtkSpd: 0.5; AtkRange: 0</t>
+  </si>
+  <si>
+    <t>Fortress</t>
+  </si>
+  <si>
+    <r>
+      <t>Total at T1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 365, iron: 475, wood: 76, gold: 268, meat: 38}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T1 → T2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 219, iron: 285, wood: 46, gold: 161, meat: 23}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T2 → T3):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 328, iron: 428, wood: 68, gold: 241, meat: 34}</t>
+    </r>
+  </si>
+  <si>
+    <t>Watchtown</t>
+  </si>
+  <si>
+    <r>
+      <t>Total at T1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 182, wood: 91, iron: 38, gold: 54, meat: 15}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T1 → T2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 109, wood: 55, iron: 23, gold: 32, meat: 9}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T2 → T3):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{stone: 164, wood: 82, iron: 34, gold: 49, meat: 14}</t>
+    </r>
+  </si>
+  <si>
+    <t>Barrack</t>
+  </si>
+  <si>
+    <r>
+      <t>Total at T1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 160, stone: 137, meat: 114, iron: 114, gold: 40}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T1 → T2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 96, stone: 82, meat: 57, iron: 68, gold: 20}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T2 → T3):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 144, stone: 123, meat: 86, iron: 114, gold: 40}</t>
+    </r>
+  </si>
+  <si>
+    <t>Villager House</t>
+  </si>
+  <si>
+    <r>
+      <t>Total at T1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 137, stone: 82, meat: 11, iron: 17, gold: 8}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T1 → T2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 82, stone: 49, meat: 7, iron: 10, gold: 5}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade (T2 → T3):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{wood: 123, stone: 74, meat: 10, iron: 15, gold: 7}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +704,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +782,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -479,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -501,6 +823,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,11 +1149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DEEF68-2B08-495F-A0B1-0D9549A78973}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="134.42578125" bestFit="1" customWidth="1"/>
@@ -834,7 +1161,7 @@
     <col min="7" max="9" width="102.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="26.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -861,7 +1188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="26.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="26.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -919,7 +1246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="26.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -948,7 +1275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="26.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -977,7 +1304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="26.25">
       <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
@@ -997,7 +1324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -1020,7 +1347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="26.25">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
@@ -1051,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B08B2-5CFE-4465-BA25-998B282FF49B}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
@@ -1082,7 +1409,7 @@
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21">
       <c r="A1" s="12"/>
       <c r="B1" s="14" t="s">
         <v>18</v>
@@ -1112,7 +1439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
@@ -1139,24 +1466,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="21">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="C3" s="4">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="D3" s="4">
         <v>-5</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F3" s="4">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -1166,7 +1493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="21">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1517,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="21">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1541,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="21">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1563,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="21">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1258,31 +1585,31 @@
       <c r="G7" s="15"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-100</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-60</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:12" ht="21">
+      <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-50</v>
+      </c>
+      <c r="C8" s="17">
+        <v>-10</v>
+      </c>
+      <c r="D8" s="17">
         <v>-5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>-10</v>
       </c>
-      <c r="F8" s="4">
-        <v>-5</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="21">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1631,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="21">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1653,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="21">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1675,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="21">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1697,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="21">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1719,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="21">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1414,7 +1741,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="21">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1763,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="21">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +1785,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="21">
       <c r="A17" s="13" t="s">
         <v>104</v>
       </c>
@@ -1470,11 +1797,92 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
+    <row r="22" spans="1:8" ht="23.25">
+      <c r="A22" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25">
+      <c r="A30" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="23.25">
+      <c r="A38" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="23.25">
+      <c r="A46" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1486,7 +1894,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1496,7 +1904,7 @@
     <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1517,7 +1925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="3">
         <v>-10</v>
       </c>
@@ -1538,7 +1946,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="3">
         <v>-5</v>
       </c>
@@ -1559,7 +1967,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1988,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1601,7 +2009,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -1621,7 +2029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="16" t="s">
         <v>54</v>
       </c>
